--- a/finetuning/it_datasets/qa_dataset/qa_it_mateur_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_mateur_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,60 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated restaurant, check out La Maison located at 2MR6+JFC La Maison, Mateur. This restaurant is perfect for restaurant lovers and has a rating of 4.4. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/La+Maison/data=!4m7!3m6!1s0x12e330e61ee33559:0xe0e16d368f4d4475!8m2!3d37.0415526!4d9.6611521!16s%2Fg%2F11gcc3_0zz!19sChIJWTXjHuYw4xIRdURNjzZt4eA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 747 793.</t>
+          <t>La Maison is a restaurant located in Mateur, Tunisia. It offers a variety of dishes and has a rating of 4.4 out of 5 on Google. The restaurant is open from 9:00 AM to 7:00 PM, except on Sundays. It is located at the coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with GPS coordinates 37.043585, 9.6628073 in the city of Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the "mshwy l'ndls" restaurant for a delightful breakfast and experience the local cuisine.
+Mid-Morning: Visit the "MATEUR" bookstore and browse through its comprehensive collection of books.
+Midday: Savor a delicious lunch at "Restaurant Lablabi" and relish the flavors of Tunisian brunch options.
+Afternoon: Explore the "Club petanque mateur" and engage in a friendly game of petanque, enjoying the outdoors and socializing with locals.
+Evening: Witness the picturesque sunset from "SUN SET" while indulging in delectable crepes.
+Night: Experience the lively atmosphere at "Cafe 5alwadh" and enjoy a relaxing evening with coffee, tea, and pastries.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mshwy l'ndls** is a highly rated restaurant located in the city of mateur, Tunisia. It offers a variety of dishes, and is known for its friendly service and delicious food. The restaurant is located at coordinates (36.9777003, 9.5167728) and is open 24 hours a day.
+Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,14 +831,60 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for somewhere to eat, check out Patisserie Lamouchi located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:35-23:05. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/P%C3%A2tisserie+Lamouchi/data=!4m7!3m6!1s0x12e330e5aefd0999:0x45abd4c95ed95ea9!8m2!3d37.0393855!4d9.6643246!16s%2Fg%2F11dfj0r7_4!19sChIJmQn9ruUw4xIRqV7ZXsnUq0U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 047 650.</t>
+          <t>Patisserie Lamouchi, located in Mateur at coordinates (36.9777003, 9.5167728), is a highly-rated restaurant. With a 4.5-star rating based on 15 reviews, it offers a wide range of culinary delights. Its convenient location on Av. Habib Bourguiba makes it easily accessible for both locals and visitors. The restaurant is open from 07:35 to 23:05, providing ample time to enjoy its offerings.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find Patisserie Lamouchi, a top-rated restaurant destination in Mateur with a 4.5 rating and a comprehensive menu?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare SNCFT Mateur train station, admiring its architectural details.
+Mid-Morning: Visit the highly-rated bookstore, MATEUR, to browse a wide selection of books.
+Midday: Try local cuisine at Restaurant Aam Rchid, known for its culinary delights and positive reviews.
+Afternoon: Take a guided tour of DAR ICHKEUL, a peaceful guest house located on a farm, and enjoy the serene nature surroundings.
+Evening: Engage in a match of petanque, a traditional French boules game, at the popular Club petanque mateur.
+Night: Relax with a delicious crepe at SUN SET, a 5-star rated creperie, and enjoy the delightful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid, located in Mateur, Tunisia (coordinates: 37.043585, 9.6628073), offers a culinary experience with a 4.3-star rating based on 3 reviews. Its menu and other details are currently unavailable, but its precise location and positive feedback suggest a worthwhile dining destination.
+Golden Coffee is a highly rated cafe located in Golden Coffee, Mateur, Tunisia. It is open from 5:00 AM to midnight daily, and offers a cozy ambiance with delicious coffee and other beverages. The cafe's convenient location makes it a great spot to relax and enjoy a break.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,14 +986,60 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Golden Coffee located at 2MV3+J6H Golden Coffee, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at  or call them at .</t>
+          <t>Golden Coffee is a highly rated cafe located in Golden Coffee, Mateur, Tunisia. It is open from 5:00 AM to midnight daily, and offers a cozy ambiance with delicious coffee and other beverages. The cafe's convenient location makes it a great spot to relax and enjoy a break.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you experience top-rated Cafe options in Mateur, as highly recommended by travelers based on its 4.5-star rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling MATEUR bookstore, renowned for its extensive book collection.
+Mid-Morning: Indulge in a delectable brunch experience at Restaurant Lablabi, known for its tantalizing brunch options and cozy atmosphere.
+Midday: Visit SUN SET, a highly-rated Creperie, and savor their exquisite crepes while enjoying the vibrant ambiance.
+Afternoon: Embark on an outdoor adventure at Club petanque mateur, where you can engage in friendly games of pétanque and soak up the fresh air.
+Evening: Head to Arabica, a top-rated restaurant, for an unforgettable dining experience, tantalizing your taste buds with their diverse culinary offerings.
+Night: Experience the local nightlife at Rapido Food, a 24/7 establishment serving delicious fast food while immersing yourself in the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1000,14 +1145,66 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe, check out Cafe Turki located at 2MP9+RHJ Cafe Turki, P11, Mateur. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 38.29634, 40.08813. For more details, visit their website at https://www.google.com/maps/place/Cafe+Turki/data=!4m7!3m6!1s0x12e330fb39226b29:0xbb649dfa7b69dd22!8m2!3d37.037086!4d9.6689031!16s%2Fg%2F11cst1f6wd!19sChIJKWsiOfsw4xIRIt1pe_qdZLs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 841 988.</t>
+          <t>Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a wide range of options in Mateur?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling atmosphere of Mateur's **MATEUR** bookstore, discovering a diverse collection of literature.
+**Mid-Morning:**
+* Indulge in a traditional Tunisian breakfast at the popular **Resturant Cukur Mateur**.
+**Midday:**
+* Visit the **Gare SNCFT Mateur** and immerse yourself in the local railway culture.
+**Afternoon:**
+* Enjoy a relaxing afternoon at **Club petanque mateur**, engaging in the traditional French game of boules.
+**Evening:**
+* Pamper yourself with a rejuvenating spa treatment at the **DAR ICHKEUL** maison d'hotes.
+**Night:**
+* Relish a delectable dinner at **Pizza Mateur**, savoring the flavors of authentic Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a restaurant located in Mateur, Tunisia. It is a popular spot for locals and tourists alike, and offers a variety of traditional Tunisian dishes. The restaurant is open 24 hours a day, and has a rating of 4.7 out of 5 stars on Google Maps.
+Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1101,15 +1298,60 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Cafe Said located at 2MP6+7M Cafe Said, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. 
-For more details, visit their website or call them at the number listed on their Google Maps page.</t>
+          <t>Cafe Said is located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). The place has a 4.0 rating and belongs to the Cafe main category. It offers a welcoming atmosphere for patrons to enjoy a delightful cafe experience.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe Said located in Mateur, renowned for its exceptional ambiance and delectable cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the historical sites of Mateur, such as the Gare SNCFT Mateur train station and the Station Louage Mateur taxi service.
+Mid-Morning: Visit the popular MATEUR bookstore and browse its wide selection of books.
+Midday: Try local cuisine at Mshwy L'ndls, known for its delicious food and friendly service.
+Afternoon: Enjoy a relaxing walk or picnic at Club petanque mateur, a highly-rated athletic club offering petanque, a traditional French boules game.
+Evening: Indulge in a delicious crepe at SUN SET, a popular 5-star rated creperie.
+Night: Experience the lively atmosphere and delicious pizzas at Pizza Mateur, a pizzeria with a 4.0 rating and satisfied customers.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mshwy l'ndls** is a highly rated restaurant located in the city of mateur, Tunisia. It offers a variety of dishes, and is known for its friendly service and delicious food. The restaurant is located at coordinates (36.9777003, 9.5167728) and is open 24 hours a day.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1453,60 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a great café, check out Break time located at 2JWW+9QP Break time, Mateur. This top-rated destination is perfect for Café lovers and offers a delicious range of beverages to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 58 512 389.</t>
+          <t>Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly-rated café (rated 4.5) that offers a diverse selection of beverages?</t>
+          <t>Day Plan:
+Morning: Start your day by visiting the historic Gare SNCFT Mateur, a train station with architectural significance and a glimpse into the city's transportation history.
+Mid-Morning: Discover the local culture and traditions at MATEUR, a renowned bookstore known for its extensive collection of literature. Engage with the friendly owner and immerse yourself in the literary world.
+Midday: Satisfy your taste buds with an authentic Tunisian dining experience at Restaurant Cukur Mateur. Known for its delectable cuisine and impeccable service, this restaurant offers a wide range of dishes to tantalize your senses.
+Afternoon: Indulge in outdoor recreation at Club petanque mateur, a highly-rated athletic club. Enjoy a game of petanque, socialize with locals, and soak up the vibrant atmosphere.
+Evening: Witness the sunset's breathtaking beauty at SUN SET, a charming creperie boasting stunning views. Relish the delicious crepes while enjoying the magical ambiance.
+Night: Conclude your day with a relaxing experience at DAR ICHKEUL, a peaceful guest house nestled amidst nature. Immerse yourself in the tranquility of the surroundings and rejuvenate for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).
+Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1318,12 +1608,60 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a delightful Cafe, Salon de the is the perfect destination. Located at 2MRH+HX4 Salon de the, Rte de Bizerte, Mateur, this top-rated spot offers a cozy ambiance for Cafe enthusiasts. The establishment boasts a 4.7 rating, making it a must-visit. Salon de the is open daily from 06:00-23:00, so you can indulge in their offerings at your convenience. For further inquiries, feel free to call them at 95 449 851.</t>
+          <t>Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a cozy, highly-rated café in Mateur with a convenient opening schedule?</t>
+          <t>Day Plan:
+Morning: Exploring Club petanque mateur, a highly-rated athletic club offering petanque, a traditional French boules game.
+Mid-Morning: Indulging in delicious pastries and desserts at Patisserie Lamouchi, a highly-rated restaurant specializing in sweet treats.
+Midday: Trying local cuisine at Restaurant Lablabi, a brunch restaurant with a 4.0-star rating offering a variety of brunch options.
+Afternoon: Shopping for books at MATEUR, a popular bookstore with a wide selection of books.
+Evening: Enjoying scenic views at the Gare SNCFT Mateur, a train station with a convenient location in the city.
+Night: Relaxing with a meal at SUN SET, a popular 5-star-rated Creperie open during the day from 12:00-00:00.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1759,60 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Cafe 5alwadh located at 2MQ7+W96 Cafe 5alwadh, Unnamed Road, Mateur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated cafe with a 5.0 rating for Cafe lovers in Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Mateur and visit MATEUR, a popular bookstore to browse a wide selection of books.
+Mid-Morning: Visit Restaurant Aam Rchid for a delicious meal and experience the local cuisine of Mateur.
+Midday: Head to DAR ICHKEUL, a guest house located on a farm, to enjoy a peaceful and relaxing stay amidst nature.
+Afternoon: Visit Club petanque mateur, a highly-rated athletic club, to socialize and enjoy the traditional French boules game, petanque.
+Evening: Dine at SUN SET, a 5-star rated Creperie, and savor delectable crepes while enjoying the ambiance.
+Night: Try local cuisine at Restaurant Lablabi, known for its brunch options and a 4.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1532,14 +1918,60 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Resturant Cukur Mateur located at Rue Algerie, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at Resturant Cukur Mateur, Rue Algerie, Mateur 7030 or call them at 23 526 510.</t>
+          <t>Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a variety of options and extended hours in the Mateur area?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Arabica restaurant, known for its top-rated local cuisine.
+Mid-Morning: Immerse in the lively atmosphere of Salon de the cafe, experiencing the friendly local culture.
+Midday: Enjoy a delectable brunch at Restaurant Lablabi, savoring the flavors of traditional Tunisian dishes.
+Afternoon: Head to Club petanque mateur, engaging in a recreational game of petanque while socializing with locals.
+Evening: Indulge in the savory pizzas at Pizza Mateur, relishing the authentic flavors of freshly baked Italian delights.
+Night: Experience the serene atmosphere of DAR ICHKEUL maison d'hotes, relaxing and rejuvenating in its tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1645,14 +2077,60 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you find yourself in mateur and are looking for a place to eat, check out Saraya restaurant &amp; Salon de the located at 2MQ7+R9R Saraya restaurant &amp; Salon de the, Mateur. 
-This highly-rated restaurant is a must-visit spot with a rating of 4.0. Open from 05:00-22:00, it's the perfect place to satisfy your cravings. 
-For more details, visit their website at or call them at 93 931 986.</t>
+          <t>**Saraya restaurant &amp; Salon de the** is a restaurant located in Mateur, Tunisia. It offers a variety of dishes with a 4.0 rating. It is open from 5:00 AM to 10:00 PM and is closed on all days. The restaurant's featured image is https://lh5.googleusercontent.com/p/AF1QipNb4Es89rP30r90_34cGt9sCFnlDh2CAPKaEoGy=w408-h306-k-no.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly-rated restaurant (4.0 stars) with a convenient opening schedule of 05:00-22:00?</t>
+          <t>Day Plan:
+Morning: Explore the bustling medina and markets of Mateur, soaking in the local culture.
+Mid-Morning: Visit the highly-rated Cafe l'horizon for a traditional Tunisian breakfast and coffee.
+Midday: Try the delicious pizzas at Pizza Mateur, known for its mouthwatering flavors.
+Afternoon: Relax and enjoy the sunshine at the beautiful Plage de Mateur, indulging in swimming or sunbathing.
+Evening: Engage in a game of petanque at Club petanque mateur, experiencing a local pastime and mingling with the friendly locals.
+Night: Savor a delightful dinner at the renowned Restaurant Aam Rchid, known for its authentic Tunisian cuisine and warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+"Cafe l'horizon" is a highly-rated cafe located in Mateur, Tunisia. With a rating of 4.3 out of 5 stars and 3 reviews on Google Maps, it's a popular destination for locals and visitors alike. While specific details about its offerings and amenities are not available, its geolocation at coordinates (37.043585, 9.6628073) places it in the heart of the city, making it easily accessible.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1746,12 +2224,60 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great Cafe, Cafe l'horizon is a must-visit. Located at 2MPH+256 Cafe l'horizon, this top-rated destination offers a range of Cafe options to choose from. With a rating of 4.3, it's a spot you won't want to miss. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>"Cafe l'horizon" is a highly-rated cafe located in Mateur, Tunisia. With a rating of 4.3 out of 5 stars and 3 reviews on Google Maps, it's a popular destination for locals and visitors alike. While specific details about its offerings and amenities are not available, its geolocation at coordinates (37.043585, 9.6628073) places it in the heart of the city, making it easily accessible.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated top destination in Mateur offering a variety of Cafe options, with GPS coordinates 37.043585, 9.6628073?</t>
+          <t>Day Plan:
+Morning: Explore the town of Mateur and visit the MATEUR bookstore.
+Mid-Morning: Try local cuisine at Resturant Cukur Mateur.
+Midday: Visit the Gare SNCFT Mateur train station and learn more about the transportation system.
+Afternoon: Participate in a game of petanque at Club petanque mateur.
+Evening: Enjoy scenic views at SUN SET and savour the delicious crepes.
+Night: Relax and enjoy a peaceful stay at DAR ICHKEUL guest house.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).
+Cafe L'amigos Mateur is a cafe located in the town of Mateur, Tunisia at the coordinates (37.04045, 9.66557). Unfortunately, there is no description available for this establishment.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1849,12 +2375,66 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a cozy and inviting cafe, look no further than Cafe Venisia. Located at 2MQH+4JW Cafe Venisia, Av. 20 Mars 1956, Cafe Venisia is a top-rated destination for cafe enthusiasts. It offers a range of delicious beverages to choose from, including coffee, tea, and fresh juices. With a perfect rating of 5.0, it's a must-visit spot for coffee lovers. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/Cafe+Venisia/data=!4m7!3m6!1s0x12e331cbdf59f6d3:0x7b247dc1c08bdf6b!8m2!3d37.0378522!4d9.6790915!16s%2Fg%2F11qg6x_vy3!19sChIJ0_ZZ38sx4xIRa9-LwMF9JHs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Mateur with a perfect 5.0 rating for its delectable beverages and inviting atmosphere, accessible via GPS coordinates and a website?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the historical landmarks of Mateur, including the Gare SNCFT Mateur and Club petanque mateur.
+**Mid-Morning:**
+- Trying local cuisine at the highly-rated Arabica restaurant, known for its delicious offerings.
+**Midday:**
+- Experiencing cultural immersion at the MATEUR bookstore, with its wide selection of books and local atmosphere.
+**Afternoon:**
+- Enjoying scenic views at SUN SET, a popular Creperie with stunning views and 5-star ratings.
+**Evening:**
+- Relaxing with a massage at a local spa or hotel, unwinding after a day of exploration.
+**Night:**
+- Enjoying traditional music and dance at a local cultural venue, experiencing the vibrant nightlife of Mateur.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, located in Mateur at coordinates (37.043585, 9.6628073), is a highly-rated restaurant with a 4.5 rating out of 5. Open from 5 AM to 11 PM every day except Sundays, Arabica welcomes customers to enjoy its culinary offerings. The restaurant's comprehensive website provides further details about its menu and services.
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1948,12 +2528,60 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Restaurant Aam Rchid located at 2MQ8+96P Restaurant Aam Rchid, Unnamed Road, Mateur. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Aam+Rchid/data=!4m7!3m6!1s0x12e3312f35a94a03:0xb67c2f87e900ebfe!8m2!3d37.0384675!4d9.6655714!16s%2Fg%2F11f8nyw3fn!19sChIJA0qpNS8x4xIR_usA6YcvfLY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Aam Rchid, located in Mateur, Tunisia (coordinates: 37.043585, 9.6628073), offers a culinary experience with a 4.3-star rating based on 3 reviews. Its menu and other details are currently unavailable, but its precise location and positive feedback suggest a worthwhile dining destination.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant destination called Restaurant Aam Rchid in Mateur, known for its exceptional Restaurant options and earning a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic landmarks of Mateur, including the Gare SNCFT Mateur train station and the MATEUR bookstore.
+Mid-Morning: Visit the Club petanque mateur athletic club for a fun game of petanque, a traditional French boules game.
+Midday: Try local cuisine at one of Mateur's highly-rated restaurants, such as Restaurant Aam Rchid or Restaurant Lablabi.
+Afternoon: Relax with a peaceful stay amidst nature at the DAR ICHKEUL guest house in Borj Essabai.
+Evening: Experience a 5-star dining experience at the SUN SET Creperie, known for its delicious crepes and scenic views.
+Night: Enjoy live music and entertainment at one of Mateur's local bars or nightclubs.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2683,60 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a delightful cafe experience, visit VEGAS located at 2MP7+HJM VEGAS, Mateur. This top-rated destination serves as a hub for Cafe lovers, offering a cozy ambiance and a satisfying selection of refreshments. With a remarkable rating of 5.0, VEGAS has garnered widespread acclaim. It's open from 06:00-23:00, providing ample opportunities for you to savor their offerings. To navigate to VEGAS, utilize the provided GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Located in Mateur, VEGAS offers a cozy atmosphere for locals to enjoy a cup of coffee or tea. With a high rating of 5.0, the cafe draws patrons with its warm ambiance and prime location. The establishment is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to relax and savor the cafe's offerings.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Which highly-rated cafe with a cozy ambiance and a satisfying refreshment selection can be found in Mateur, offering a welcoming experience from 6 AM to 11 PM?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Carthage, a UNESCO World Heritage Site.
+Mid-Morning: Visit the National Museum of Carthage to learn about the history and culture of the ancient city.
+Midday: Lunch at Le Pirate, a charming seafood restaurant on the waterfront.
+Afternoon: Take a leisurely stroll along the picturesque Port of Sidi Bou Said, enjoying the stunning views.
+Evening: Dinner at Chez Lellouch, a traditional Tunisian restaurant renowned for its authentic cuisine.
+Night: Attend a live performance of traditional music and dance at the Théâtre Municipal de Tunis.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Saraya restaurant &amp; Salon de the is a Restaurant located in mateur (coordinates: 45.566787, -73.727628). Customer reviews give it an average rating of 4.0
+Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2162,14 +2838,60 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe spot, check out L'agora rescafe located at 2MQ7+F38 L'agora rescafe, Mateur. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/L%27agora+rescafe/data=!4m7!3m6!1s0x12e33161ce188b99:0x92079eda468d75c7!8m2!3d37.0386647!4d9.6626932!16s%2Fg%2F11fm79r_41!19sChIJmYsYzmEx4xIRx3WNRtqeB5I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café in Mateur that offers a wide selection of café options and boasts a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring the historic Gare SNCFT Mateur train station, immersing yourself in the town's railway heritage.
+Mid-Morning: Indulge in the local cuisine at Restaurant Lablabi, known for its delectable brunch options.
+Midday: Visit the peaceful Borj Essabai guest house, enjoying the serenity of nature and soaking in the tranquility of this farm escape.
+Afternoon: Engage in a friendly game of petanque at Club petanque mateur, a beloved athletic club that offers a blend of sports and socialization.
+Evening: Head to Arabica, a highly-rated restaurant, to savor a delightful dinner while relishing the picturesque ambiance.
+Night: Experience the lively atmosphere of L'agora rescafe, a charming cafe that offers a cozy setting for an evening of relaxation and conversation.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2263,15 +2985,60 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out cafe dhahbi located at 2JXW+MRJ cafe dhahbi, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe experience with a wide selection of options in Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant MATEUR bookstore, browsing its extensive collection of books across various genres.
+Mid-Morning: Visit DAR ICHKEUL, a charming maison d'hotes with a highly-rated 4.8 out of 5. Immerse in the serene atmosphere and soak in the stunning scenic views.
+Midday: Savor the delicious flavors of local Tunisian cuisine at Restaurant Lablabi, known for its brunch options. Indulge in a delectable meal that showcases the region's culinary traditions.
+Afternoon: Engage in a friendly game of petanque at Club petanque mateur, a highly-rated athletic club offering this traditional French boules game. Connect with locals and enjoy the lively atmosphere.
+Evening: Take a stroll through the city center and admire the local architecture. Capture the beauty of the surroundings and witness the bustling energy of Mateur.
+Night: Indulge in a scrumptious pizza dinner at Pizza Mateur, renowned for its mouthwatering creations. Experience the warmth of the local ambiance while relishing the flavorsome pizzas.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Saraya restaurant &amp; Salon de the is a Restaurant located in mateur (coordinates: 45.566787, -73.727628). Customer reviews give it an average rating of 4.0
+The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2381,16 +3148,60 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great place to eat, check out Arabica located at 2MQ7+W8Q Arabica, Mateur. 
-This top-rated destination is perfect for restaurant lovers and offers a range restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on Dimanche. 
-To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website 
-at https://arabicafastfood.com/ or call them at 99 501 901.</t>
+          <t>Arabica, located in Mateur at coordinates (37.043585, 9.6628073), is a highly-rated restaurant with a 4.5 rating out of 5. Open from 5 AM to 11 PM every day except Sundays, Arabica welcomes customers to enjoy its culinary offerings. The restaurant's comprehensive website provides further details about its menu and services.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant serving a range of options in Mateur, known for its high ratings and inviting atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring the MATEUR bookstore
+Mid-Morning: Trying local cuisine at Restaurant el ajabi
+Midday: Visiting the Gare SNCFT Mateur, the train station in Mateur
+Afternoon: Engaging in outdoor activities like petanque at Club petanque mateur
+Evening: Enjoying scenic views at SUN SET Creperie
+Night: Relaxing with a hot bath at your hotel</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el ajabi is located in mateur. It has a rating of 5.0 and is highly reviewed (5 reviews). The main category of the establishment is Restaurant and it offers the following: . The website of the place is nan. The phone number is 22 862 424. The workday timing is 05:05-20:30. The place is located at the following address: 2MQ7+R8H Restaurant el ajabi, Mateur. The coordinates of the place are (37.043585, 9.6628073).
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2488,14 +3299,60 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out cafe L'amigos Mateur located at 2MV4+7G9 cafe L'amigos Mateur, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+L%27amigos+Mateur/data=!4m7!3m6!1s0x12e3316e263256cd:0x33acd777058a7d83!8m2!3d37.0431521!4d9.6563692!16s%2Fg%2F11gm715pf4!19sChIJzVYyJm4x4xIRg32KBXfXrDM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe L'amigos Mateur is a cafe located in the town of Mateur, Tunisia at the coordinates (37.04045, 9.66557). Unfortunately, there is no description available for this establishment.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe offering a range of Cafe options in Mateur, Tunisia, with GPS coordinates 37.04045, 9.66557 and a convenient website for more details?</t>
+          <t>Day Plan:
+Morning: Explore MATEUR, a popular bookstore with a wide selection of books.
+Mid-Morning: Visit the highly-rated Club petanque mateur to enjoy a traditional French boules game.
+Midday: Try local cuisine at Arabica, a top-rated restaurant offering a variety of food options.
+Afternoon: Engage in outdoor activities like hiking or biking at a nearby park.
+Evening: Experience cultural immersion at DAR ICHKEUL, a maison d'hotes with a rating of 4.8 based on 58 reviews.
+Night: Enjoy scenic views at SUN SET, a 5-star rated Creperie with a perfect view of the sunset.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2589,12 +3446,64 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe, check out Cafes Couzin located at 2JXQ+HRH Cafes Couzin, P7, Mateur. This Cafe is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find Cafes Couzin, a highly rated Cafe destination with GPS coordinates of 37.043585, 9.6628073?</t>
+          <t>Day Plan:
+Morning:
+- Explore MATEUR bookstore (situated in the city center) and discover a wide selection of literature.
+Midday: 
+- Try local cuisine at Restaurant el ajabi (rated 5.0 with rave reviews), known for its delectable offerings.
+Afternoon: 
+- Visit the cultural heritage site DAR ICHKEUL (rated 4.8 with numerous reviews), a historic landmark offering insights into the region's past.
+Evening: 
+- Participate in a petanque game at Club petanque mateur, a high-rated athletic club where you can socialize and engage in a traditional French game.
+Night: 
+- Head to SUN SET and indulge in delectable crepes while enjoying the evening ambiance (a popular 5-star rated Creperie).</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el ajabi is located in mateur. It has a rating of 5.0 and is highly reviewed (5 reviews). The main category of the establishment is Restaurant and it offers the following: . The website of the place is nan. The phone number is 22 862 424. The workday timing is 05:05-20:30. The place is located at the following address: 2MQ7+R8H Restaurant el ajabi, Mateur. The coordinates of the place are (37.043585, 9.6628073).
+Cafe L'amigos Mateur is a cafe located in the town of Mateur, Tunisia at the coordinates (37.04045, 9.66557). Unfortunately, there is no description available for this establishment.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2696,14 +3605,60 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a satisfying Restaurant brunch experience, check out Restaurant Lablabi located at 2MP7+P4V Unnamed Road, Mateur, Mateur. 
-This top-rated destination is perfect for Restaurant brunch lovers and offers a range of cuisines to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Lablabi/data=!4m7!3m6!1s0x12e330e40f0f888f:0xa7c2c9196f73acdd!8m2!3d37.0368529!4d9.6628047!16s%2Fg%2F11f3n20fjs!19sChIJj4gPD-Qw4xIR3axzbxnJwqc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant brunch spot called Restaurant Lablabi in Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the lively MATEUR bookstore, offering a wide selection of books and a local charm.
+Mid-Morning: Indulge in a delicious brunch at Restaurant Lablabi, known for its hearty and authentic Tunisian cuisine.
+Midday: Visit the iconic DAR ICHKEUL, a highly-rated maison d'hotes, to admire its beautiful surroundings and rich history.
+Afternoon: Engage in a friendly game of petanque, a traditional French boules game, at the highly-rated Club petanque mateur.
+Evening: Savor exquisite pizzas at Pizza Mateur, a popular pizzeria with a cozy ambiance and mouthwatering flavors.
+Night: Experience the vibrant atmosphere of VEGAS, a local cafe offering a cozy setting to relax and enjoy a cup of coffee or tea.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.
+Located in Mateur, VEGAS offers a cozy atmosphere for locals to enjoy a cup of coffee or tea. With a high rating of 5.0, the cafe draws patrons with its warm ambiance and prime location. The establishment is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to relax and savor the cafe's offerings.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2801,12 +3756,60 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out tmkhmykh@ located at 2MR6+9X2 tmkhmykh@, Mateur Sud, Mateur. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AA%D9%85%D8%AE%D9%85%D9%8A%D8%AE%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12e3318227b7708f:0x526f0dd638791c1f!8m2!3d37.0408968!4d9.6623974!16s%2Fg%2F11vlbh5g33!19sChIJj3C3J4Ix4xIRHxx5ONYNb1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Mateur that boasts a 5.0 rating and is highly recommended for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Mateur, taking in the local markets and traditional architecture.
+Mid-Morning: Visit the Salon de the for a delightful coffee and pastry break while soaking up the friendly ambiance.
+Midday: Savor a traditional Tunisian meal at Restaurant Lablabi, known for its flavorful and authentic dishes.
+Afternoon: Discover the MATEUR bookstore, perusing its wide selection of books and cultural treasures.
+Evening: Engage in a game of petanque at Club petanque mateur, enjoying the camaraderie and competitive spirit of this beloved French game.
+Night: Indulge in a sweet treat at SUN SET, a highly-rated creperie offering delicious crepes and a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2904,14 +3907,66 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out pizza mateur located at 2MQ6+JV3 pizza mateur, Mateur. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, call them at 29 733 805.</t>
+          <t>Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria spot with GPS coordinates of 37.04045, 9.66557, known for its exceptional Pizzeria offerings?</t>
+          <t>Day Plan:
+Morning:
+- Explore the scenic MATEUR bookstore, known for its wide selection of books and cozy atmosphere.
+Mid-Morning:
+- Visit the DAR ICHKEUL guest house in Borj Essabai to connect with nature and enjoy the tranquil surroundings.
+Midday:
+- Try local cuisine at the highly-rated tmkhmykh restaurant in Mateur Sud, known for its excellent service and authentic flavors.
+Afternoon:
+- Enjoy a relaxing afternoon at the Club petanque mateur, a popular spot for socializing and playing traditional French boules games.
+Evening:
+- Indulge in a delicious crepe at the 5-star SUN SET Creperie, offering a cozy ambiance and delectable sweet and savory options.
+Night:
+- Head to Rapido Food for a 24/7 fast food treat to end the day on a satisfying note.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.
+Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3017,12 +4072,60 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out DAR ICHKEUL located at DAR ICHKEUL, Route de Tunis Km 3 Mateur, Borj Essabai 7030, Mateur 7030. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://darichkeul.tn/ or call them at 27 595 239.</t>
+          <t>DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated Maison d'hotes destination in Mateur that offers a range of accommodations with a rating of 4.8?</t>
+          <t>Day Plan:
+Morning: Exploring MATEUR bookstore and discovering hidden literary gems.
+Mid-Morning: Trying local cuisine at Saraya restaurant &amp; Salon de the. Indulge in delicious Tunisian dishes with a 4.0 rating.
+Midday: Visiting Club petanque mateur to participate in a friendly game of petanque and interact with locals.
+Afternoon: Enjoying recreational activities at a nearby park or beach, taking a leisurely walk, or trying outdoor activities like cycling.
+Evening: Experiencing cultural immersion at a local museum or cultural site.
+Night: Dining at SUN SET Creperie, a 5-star rated restaurant, and savoring local delicacies in a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya restaurant &amp; Salon de the** is a restaurant located in Mateur, Tunisia. It offers a variety of dishes with a 4.0 rating. It is open from 5:00 AM to 10:00 PM and is closed on all days. The restaurant's featured image is https://lh5.googleusercontent.com/p/AF1QipNb4Es89rP30r90_34cGt9sCFnlDh2CAPKaEoGy=w408-h306-k-no.
+Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3126,10 +4229,62 @@
           <t>mateur</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>What is the significance of 'nan' as a travel destination?</t>
+          <t>Day Plan:
+Morning: Exploring MATEUR (bookstore)
+Mid-Morning: Trying local cuisine at Café Turki
+Midday: Visiting the Gare SNCFT Mateur (train station)
+Afternoon: Enjoying petanque at Club petanque mateur
+Evening: Having dinner at Restaurant Lablabi
+Night: Participating in an event/activity at Club petanque mateur</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Maison, located at 2MR6+JFC in Mateur, is a restaurant with an impressive 4.4-star rating based on 34 reviews. Open from 9:00 am to 7:00 pm on weekdays, La Maison offers a delectable dining experience. While we do not have a detailed description of the restaurant's offerings, its convenient location and positive reviews suggest a worthwhile culinary adventure.
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3227,12 +4382,60 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Club petanque mateur located at 2MQ9+5W2 Club petanque mateur, Mateur. This top-rated destination is perfect for Club d'athletisme lovers and offers a range of Club d'athletisme to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Club+petanque+mateur/data=!4m7!3m6!1s0x12e33161fe77c25f:0x45f0eab014b2f13e!8m2!3d37.037883!4d9.6697538!16s%2Fg%2F11hvdh03zs!19sChIJX8J3_mEx4xIRPvGyFLDq8EU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find Club petanque mateur, a highly-rated destination with various Club d'athletisme options for Club d'athletisme enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic coastal town of Mateur
+Mid-Morning: Try local cuisine at Restaurant Aam Rchid for a taste of traditional Tunisian flavors
+Midday: Visit the DAR ICHKEUL maison d'hotes for a glimpse into the local culture and architecture
+Afternoon: Enjoy scenic views and relax at SUN SET Creperie, savoring a delicious crepe while overlooking the beautiful surroundings
+Evening: Participate in a petanque game at Club petanque mateur, immersing yourself in a popular local sport
+Night: Head to Rapido Food for a quick and convenient dinner, refueling for the next day's adventures</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3326,12 +4529,60 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great bookstore, check out MATEUR at 2MV2+FW3 MATEUR, Ecole, Mateur. With a rating of 4.0, this top-rated spot is a must-visit for bookworms. MATEUR offers a range of categories to choose from. It's open during these hours: and closed on . To get there, use these GPS coordinates: 37.04045, 9.66557.</t>
+          <t>MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly-rated bookstore with an extensive selection of categories?</t>
+          <t>Day Plan:
+Morning: Visit Restaurant Cukur Mateur for an authentic Tunisian breakfast and delicious cuisine.
+Mid-Morning: Explore the charming streets of Mateur and immerse yourself in the local culture. Visit the picturesque Church of Mateur.
+Midday: Try local cuisine at DAR ICHKEUL and relax in their beautiful garden.
+Afternoon: Engage in outdoor activities at Club petanque mateur and enjoy a game of petanque, a traditional French boules game.
+Evening: Take a stroll through MATEUR bookstore and explore the vast selection of books.
+Night: Experience a culinary delight at SUN SET, a popular crepe restaurant that serves delicious crepes.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).
+Located in Mateur, VEGAS offers a cozy atmosphere for locals to enjoy a cup of coffee or tea. With a high rating of 5.0, the cafe draws patrons with its warm ambiance and prime location. The establishment is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to relax and savor the cafe's offerings.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3437,12 +4688,66 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something delicious to eat, check out La Maison located at 2MR6+JFC, Mateur. This 4.4-rated restaurant is perfect for food enthusiasts and offers a delightful dining experience. Open from 09:00-19:00 on all days except Sunday. To visit this amazing spot, note down these coordinates: 37.043585, 9.6628073. For reservations or more details, contact them at 20 747 793.</t>
+          <t>La Maison, located at 2MR6+JFC in Mateur, is a restaurant with an impressive 4.4-star rating based on 34 reviews. Open from 9:00 am to 7:00 pm on weekdays, La Maison offers a delectable dining experience. While we do not have a detailed description of the restaurant's offerings, its convenient location and positive reviews suggest a worthwhile culinary adventure.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant called La Maison, perfect for food lovers, in the Mateur area?</t>
+          <t>Day Plan:
+Morning:
+- Explore the picturesque city of Mateur, soaking in the local sights and sounds.
+Mid-Morning:
+- Treat your taste buds to the delectable Tunisian cuisine at Restaurant Zarga, known for its exquisite flavors.
+Midday:
+- Visit the captivating MATEUR bookstore, browse its extensive collection, and delve into a literary haven.
+Afternoon:
+- Engage in a lively game of petanque at Club Petanque Mateur, embracing the traditional French sport amidst friendly company.
+Evening:
+- Indulge in a delightful crepe feast at SUN SET, savoring the sweet and savory flavors while enjoying the vibrant atmosphere.
+Night:
+- Embark on a guided tour of the historical Gare SNCFT Mateur, immersing yourself in the city's rich railway heritage.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Zarga is a highly rated restaurant located in Mateur, Tunisia. It offers a variety of dining options and is known for its delicious food and friendly service. The restaurant is conveniently located at latitude 37.043585 and longitude 9.6628073, making it easily accessible for both locals and tourists. With its excellent ratings and convenient location, Restaurant Zarga is a great choice for anyone looking for a delicious and satisfying meal.
+Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3548,12 +4853,60 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Patisserie Lamouchi located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:35-23:05. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, call them at 22 047 650.</t>
+          <t>Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find Patisserie Lamouchi, a highly-rated destination offering a selection of restaurants with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Exploring MATEUR bookstore for a wide selection of books
+Mid-Morning: Visiting the Club petanque mateur for a game of petanque and socializing
+Midday: Trying local cuisine at top-rated restaurant Arabica
+Afternoon: Taking a guided tour of the Gare SNCFT Mateur train station
+Evening: Relaxing with a traditional French crepe at 5-star rated SUN SET creperie
+Night: Enjoying scenic views at Staroil Mateur gas station while fueling up for the next day's adventures</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3659,12 +5012,60 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated place to satisfy your Restaurant cravings, Restaurant el ajabi is the perfect spot for you. Located at 2MQ7+R8H Restaurant el ajabi, Mateur, this destination boasts a rating of 5.0. Open from 05:05-20:30, it offers a range of Restaurant options to choose from. For more information, you can call them at 22 862 424</t>
+          <t>Restaurant el ajabi is located in mateur. It has a rating of 5.0 and is highly reviewed (5 reviews). The main category of the establishment is Restaurant and it offers the following: . The website of the place is nan. The phone number is 22 862 424. The workday timing is 05:05-20:30. The place is located at the following address: 2MQ7+R8H Restaurant el ajabi, Mateur. The coordinates of the place are (37.043585, 9.6628073).</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant with a 5.0 rating in Mateur, offering a variety of options and convenient hours?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare SNCFT Mateur train station (3.3/5 rating).
+Mid-Morning: Visit the popular MATEUR bookstore for a wide selection of books (4.0/5 rating).
+Midday: Try local cuisine at Restaurant Lablabi, known for its brunch options (4.0/5 rating).
+Afternoon: Enjoy a game of petanque at the highly-rated Club petanque mateur (4.3/5 rating).
+Evening: Visit SUN SET, a 5-star rated creperie, for a delightful dinner experience.
+Night: Experience cultural immersion at the station des louages mateur, a transport service offering insights into local life (3.3/5 rating).</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3770,13 +5171,60 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great Restaurant, check out Saraya restaurant &amp; Salon de the located at 2MQ7+R9R Saraya restaurant &amp; Salon de the, Mateur. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 4.0. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 45.566787, -73.727628. For more details, visit their website at https://www.google.com/maps/place/Saraya+restaurant+%26+Salon+de+th%C3%A9/data=!4m7!3m6!1s0x12e331ba120ff577:0xe5ed3abcf3c13f4!8m2!3d37.0396125!4d9.6633906!16s%2Fg%2F11sddnqfq2!19sChIJd_UPErox4xIR9BM8z6vTXg4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 931 986.</t>
+          <t>Saraya restaurant &amp; Salon de the is a Restaurant located in mateur (coordinates: 45.566787, -73.727628). Customer reviews give it an average rating of 4.0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant called Saraya restaurant &amp; Salon de the in Mateur?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Gare SNCFT Mateur, a train station with an average rating of 3.3.
+Mid-Morning: Trying local cuisine at Restaurant Lablabi, a brunch restaurant rated 4.0 stars on Google Maps, offering a variety of brunch options.
+Midday: Participating in outdoor activities like petanque, a traditional French boules game, at the highly-rated (4.3/5) athletic club, Club petanque mateur.
+Afternoon: Enjoying scenic views at Staroil Mateur, a gas station with a 3.7-star rating, offering 24/7 fuel services.
+Evening: Experiencing cultural immersion at MATEUR, a popular bookstore with a 4.0-star rating, specializing in the "Librairie" category.
+Night: Relaxing with a crepe dinner at SUN SET, a 5-star rated Creperie, open during the day from 12:00-00:00.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Patisserie Lamouchi, located in Mateur at coordinates (36.9777003, 9.5167728), is a highly-rated restaurant. With a 4.5-star rating based on 15 reviews, it offers a wide range of culinary delights. Its convenient location on Av. Habib Bourguiba makes it easily accessible for both locals and visitors. The restaurant is open from 07:35 to 23:05, providing ample time to enjoy its offerings.
+Cafe L'amigos Mateur is a cafe located in the town of Mateur, Tunisia at the coordinates (37.04045, 9.66557). Unfortunately, there is no description available for this establishment.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3882,16 +5330,60 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great restaurant, check out Resturant Cukur Mateur located at Rue Algerie, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.7, it's a must-visit spot. 
-It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.9777003, 9.5167728. 
-For more details, call them at 23 526 510.</t>
+          <t>Resturant Cukur Mateur is a restaurant located in Mateur, Tunisia. It is a popular spot for locals and tourists alike, and offers a variety of traditional Tunisian dishes. The restaurant is open 24 hours a day, and has a rating of 4.7 out of 5 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>What is the name and location of a highly-rated restaurant in Mateur that is a must-visit spot for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage at the MATEUR bookstore.
+Mid-Morning: Enjoy a delectable brunch at Restaurant Lablabi.
+Midday: Take a guided tour of the Gare SNCFT Mateur to learn about the city's transportation history.
+Afternoon: Engage in a friendly game of petanque at Club petanque mateur.
+Evening: Savor the authentic flavors of local cuisine at Arabica.
+Night: Relax and unwind at the Club petanque mateur while enjoying the ambiance of the evening.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, located in Mateur at coordinates (37.043585, 9.6628073), is a highly-rated restaurant with a 4.5 rating out of 5. Open from 5 AM to 11 PM every day except Sundays, Arabica welcomes customers to enjoy its culinary offerings. The restaurant's comprehensive website provides further details about its menu and services.
+The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3997,12 +5489,60 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a place to grab a bite, consider Rapido Food located at 2MQ8+GRP Av. Habib Bourguiba. This top-rated destination is perfect for fast food lovers and offers a wide range of options to choose from. With a rating of 4.3, it's a spot worth visiting. It's open 24 hours a day, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 35.760233560953, 10.701482957504. For more details, visit their website.</t>
+          <t>Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a 24-hour fast food spot with a high rating and a variety of menu options?</t>
+          <t>Day Plan:
+Morning: Exploring the local market at MATEUR for souvenirs and unique finds.
+Mid-Morning: Trying local cuisine at Arabica, a top-rated restaurant known for its diverse food options.
+Midday: Visiting the historic Gare SNCFT Mateur train station for its architectural beauty and railway history.
+Afternoon: Enjoying a relaxing afternoon at DAR ICHKEUL, a peaceful guest house surrounded by nature, offering tranquility and comfort.
+Evening: Participating in a petanque game at Club petanque mateur, a highly-rated athletic club promoting socialization and outdoor enjoyment.
+Night: Experiencing the vibrant atmosphere at SUN SET, a 5-star Creperie, delighting in delicious crepes and enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4096,12 +5636,60 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in mateur, Restaurant Aam Rchid is a must-visit spot for Restaurant lovers. With a rating of 4.3, it's a top-rated destination. Located at 2MQ8+96P Restaurant Aam Rchid, Unnamed Road, Mateur, it's open during workday_timing, but closed on closed_on. For more details, visit their website or call them at phone.</t>
+          <t>Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Restaurant Aam Rchid located, and what makes it a top destination for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the local market, Mateur Market, for unique souvenirs and local products.
+Mid-Morning: Try local cuisine at La Maison, known for its impressive 4.4-star rating and delectable dining experience.
+Midday: Visit the Club petanque mateur, a highly-rated athletic club. Enjoy the traditional French boules game, petanque, and socialize with locals.
+Afternoon: Take a guided tour of MATEUR, a popular bookstore, to explore its wide selection of books.
+Evening: Dine at Café Turki, a café with a 4.5-star rating, offering a variety of food and drinks in a cozy atmosphere.
+Night: Relax with a movie at Ciné Mateur, a popular cinema known for its comfortable seating and latest movie releases.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Maison, located at 2MR6+JFC in Mateur, is a restaurant with an impressive 4.4-star rating based on 34 reviews. Open from 9:00 am to 7:00 pm on weekdays, La Maison offers a delectable dining experience. While we do not have a detailed description of the restaurant's offerings, its convenient location and positive reviews suggest a worthwhile culinary adventure.
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4207,14 +5795,60 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out mT`m lshml located at 2MQ7+QH5 mT`m lshml. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 22 129 680.</t>
+          <t>mT`m lshml is a restaurant located in mateur (37.043585, 9.6628073),Tunisia. The restaurant is open from 09:00-17:00 and is closed on []. It has a rating of 4.0 out of 5 and has received 3 reviews. The restaurant's main category is Restaurant and its categories are ['Restaurant'].</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>What top-rated restaurant destination with a variety of dining options and a 4.0 rating is located at 2MQ7+QH5 mT`m lshml in mateur?</t>
+          <t>Day Plan:
+Morning: Visit the historic Gare SNCFT Mateur train station for a glimpse into the city's past.
+Mid-Morning: Immerse yourself in local culture at MATEUR, a popular bookstore with a vast collection of books.
+Midday: Indulge in authentic Tunisian cuisine at Arabica, a top-rated restaurant offering a variety of dishes.
+Afternoon: Enjoy the serene ambiance of DAR ICHKEUL, a charming guesthouse amidst natural surroundings.
+Evening: Head to Club petanque mateur for a friendly game of petanque and socialize with locals.
+Night: End the day with a sweet treat at SUN SET, a highly-rated creperie offering delectable crepes in the evening.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4320,14 +5954,60 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out mshwy l'ndls located at 2MQP+MJH mshwy l'ndls, Cite Promeco, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D9%B1%D9%86%D8%AF%D9%84%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x12e331fa199eaeff:0x8fcc69b8d1b30b78!8m2!3d37.0369725!4d9.6861193!16s%2Fg%2F11v3rkctrb!19sChIJ_66eGfox4xIReAuz0bhpzI8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 949 665.</t>
+          <t>**mshwy l'ndls** is a highly rated restaurant located in the city of mateur, Tunisia. It offers a variety of dishes, and is known for its friendly service and delicious food. The restaurant is located at coordinates (36.9777003, 9.5167728) and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining destination with an impressive 5.0 rating and extended hours in Mateur?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the vibrant streets of Mateur. Discover hidden gems and local markets, offering a glimpse into the town's lively atmosphere.
+Mid-Morning: Visit Restaurant Aam Rchid for a delightful culinary experience. Savor traditional Tunisian flavors and enjoy the cozy ambiance.
+Midday: Head to Club petanque mateur and indulge in the local sport of petanque. Engage with locals and enjoy the friendly atmosphere.
+Afternoon: Take a refreshing dip at the Parc de Loisirs Mateur. Escape the heat and relax by the water's edge.
+Evening: Dine at Pizza Mateur, savoring delicious pizzas that have earned it a stellar reputation. Relish the flavors and unwind after a day of exploration.
+Night: Experience the lively nightlife at Rapido Food, a 24/7 fast-food restaurant. Immerse yourself in the local culture and enjoy late-night bites.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.
+Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4437,14 +6117,60 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Arabica located at 2MQ7+W8Q. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://arabicafastfood.com/ or call them at 99 501 901.</t>
+          <t>Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly-rated restaurant destination that's perfect for those seeking a culinary experience, with a specific emphasis on Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the historic sites of MATEUR (Librairie)
+Mid-Morning: Visit Gare SNCFT Mateur (Train Station)
+Midday: Try local cuisine at Patisserie Lamouchi (Restaurant)
+Afternoon: Experience cultural immersion at DAR ICHKEUL (Maison d'hotes)
+Evening: Enjoy scenic views at SUN SET (Creperie)
+Night: Take a stroll through Shell Mateur (Gas Station)</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.
+Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4542,12 +6268,60 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out tmkhmykh@ located at 2MR6+9X2 tmkhmykh@, Mateur Sud, Mateur. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AA%D9%85%D8%AE%D9%85%D9%8A%D8%AE%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12e3318227b7708f:0x526f0dd638791c1f!8m2!3d37.0408968!4d9.6623974!16s%2Fg%2F11vlbh5g33!19sChIJj3C3J4Ix4xIRHxx5ONYNb1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the phone number.</t>
+          <t>**tmkhmykh@** is a restaurant located in Mateur Sud, Mateur, Tunisia. It has a rating of 5.0 based on one review. The restaurant's exact coordinates are (37.0397, 9.66046). No further information is available about this establishment.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>If you're visiting Mateur and craving a delicious meal, which top-rated destination with a 5.0 rating is known for its exceptional restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the local market for souvenirs and unique finds.
+Mid-Morning: Indulge in a traditional Tunisian breakfast at Cafe 5alwadh while soaking in the vibrant atmosphere.
+Midday: Embark on a guided tour of the scenic DAR ICHKEUL guest house, immersing yourself in the tranquil nature and traditional architecture.
+Afternoon: Challenge your skills with a game of petanque at Club Petanque Mateur, a popular local athletic club, and mingle with the friendly community.
+Evening: Satisfy your taste buds with an authentic Tunisian dinner at Restaurant Zarga, renowned for its delicious food and warm hospitality.
+Night: Experience the lively ambiance of SUN SET, a highly-rated Creperie, and savor the sweet flavors of traditional crepes while enjoying the stunning sunset views.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Zarga is a highly rated restaurant located in Mateur, Tunisia. It offers a variety of dining options and is known for its delicious food and friendly service. The restaurant is conveniently located at latitude 37.043585 and longitude 9.6628073, making it easily accessible for both locals and tourists. With its excellent ratings and convenient location, Restaurant Zarga is a great choice for anyone looking for a delicious and satisfying meal.
+Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4649,14 +6423,60 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Restaurant Lablabi located at 2MP7+P4V Restaurant Lablabi, Unnamed Road, Mateur, Mateur. 
-This top-rated destination is perfect for Restaurant brunch lovers and offers a range of Restaurant brunch to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Lablabi/data=!4m7!3m6!1s0x12e330e40f0f888f:0xa7c2c9196f73acdd!8m2!3d37.0368529!4d9.6628047!16s%2Fg%2F11f3n20fjs!19sChIJj4gPD-Qw4xIR3axzbxnJwqc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>What top-rated restaurant in Mateur, Tunisia offers Restaurant brunch options and boasts a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the iconic Gare SNCFT Mateur, a historic train station offering a glimpse into the city's past.
+Mid-Morning: Immerse yourself in the vibrant MATEUR bookstore, browse through its wide selection of books, and engage in thought-provoking conversations.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Lablabi, renowned for its delectable brunch options.
+Afternoon: Venture to TotalEnergies - MATEUR gas station for a quick energy boost and some refreshments before embarking on an afternoon stroll through the picturesque DAR ICHKEUL.
+Evening: Treat yourself to a delightful dinner at Resturant Cukur Mateur, a top-rated restaurant with a cozy ambiance and impeccable service.
+Night: Head over to Pizza Mateur for a casual and satisfying meal, ending the day on a high note with their famous pizzas.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4754,15 +6574,60 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out pizza mateur located at 2MQ6+JV3 pizza mateur, Mateur. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (37.04045, 9.66557). 
-For more details, visit their website at https://www.google.com/maps/place/pizza+mateur/data=!4m7!3m6!1s0x12e33173cb7db055:0x4c8a14e1ce6a6b65!8m2!3d37.0390143!4d9.6621755!16s%2Fg%2F11np8jks8d!19sChIJVbB9y3Mx4xIRZWtqzuEUikw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 733 805.</t>
+          <t>Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly rated Pizzeria destination, perfect for Pizzeria lovers, with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical town of Mateur and visit its notable landmarks, such as the Gare SNCFT Mateur train station and the ancient ruins of Dougga.
+Mid-Morning: Indulge in a delightful breakfast at Patisserie Lamouchi, known for its delectable pastries and desserts, and savor the authentic flavors of Tunisian cuisine.
+Midday: Visit the Museum of Mateur to delve into the rich history and cultural heritage of the town, gaining insights into its past and traditions.
+Afternoon: Enjoy a leisurely stroll through the scenic MATEUR bookstore, browsing its extensive collection of books and discovering hidden literary gems.
+Evening: Head to Break time cafe for a refreshing break, sip on aromatic coffee or tea, and engage in conversations with locals, immersing yourself in the vibrant atmosphere.
+Night: Relish a delicious dinner at Restaurant Lablabi, specializing in mouthwatering brunch options, and experience the warmth and hospitality of Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.
+Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4868,12 +6733,60 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out SUN SET located at 2MV4+CM2 SUN SET, Mateur. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on . To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 27 157 409.</t>
+          <t>SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>If you're in Mateur searching for a delectable Creperie experience with top-rated cuisine, where can you find SUN SET?</t>
+          <t>Day Plan:
+Morning: Explore the historical sites of Mateur, Tunisia, such as the ruins of the ancient Roman city of Muthul.
+Mid-Morning: Visit the MATEUR bookstore to browse a wide selection of books and literary works.
+Midday: Enjoy a delightful meal of traditional Tunisian cuisine at the highly-rated Restaurant Lablabi.
+Afternoon: Take a leisurely stroll through the picturesque park, enjoying the serene atmosphere and lush greenery.
+Evening: Experience the local culture by attending a petanque game at the Club petanque mateur, a traditional French boules game.
+Night: Indulge in a memorable dinner at tmkhmykh, a highly-rated restaurant known for its exceptional culinary offerings.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4971,12 +6884,60 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in mateur, check out restaurant Zarga located at 2MP8+M69 restaurant Zarga, Mateur. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Zarga is a highly rated restaurant located in Mateur, Tunisia. It offers a variety of dining options and is known for its delicious food and friendly service. The restaurant is conveniently located at latitude 37.043585 and longitude 9.6628073, making it easily accessible for both locals and tourists. With its excellent ratings and convenient location, Restaurant Zarga is a great choice for anyone looking for a delicious and satisfying meal.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>What is the special restaurant option available in Mateur, Tunisia, with a high rating?</t>
+          <t>Day Plan:
+Morning: Exploring Restaurant Aam Rchid for a culinary experience with 4.3-star ratings.
+Mid-Morning: Trying local cuisine at the highly-rated Cafe Venisia.
+Midday: Visiting Restaurant Lablabi for a 4.0-star brunch experience.
+Afternoon: Exploring the highly-rated Pizza Mateur for a delicious variety of pizzas.
+Evening: Visiting DAR ICHKEUL, a 4.8-star rated maison d'hotes, for a relaxing stay.
+Night: Enjoying the highly-rated Club petanque mateur for a game of petanque and socializing.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Aam Rchid, located in Mateur, Tunisia (coordinates: 37.043585, 9.6628073), offers a culinary experience with a 4.3-star rating based on 3 reviews. Its menu and other details are currently unavailable, but its precise location and positive feedback suggest a worthwhile dining destination.
+Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5086,12 +7047,66 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a highly-rated station-service, check out TotalEnergies - MATEUR located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030. With a rating of 3.7 based on 10 reviews, it's a must-visit spot for station-service lovers. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.0432, 9.65567. For more details, visit their website at https://services.totalenergies.tn/ or call them at 72 465 650.</t>
+          <t>TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Mateur can you find a highly-rated station-service with a convenient 24/7 schedule?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the bustling streets of Mateur, discovering hidden gems and local markets.
+**Mid-Morning:**
+- Visit the highly-rated Restaurant Lablabi for a traditional brunch.
+**Midday:**
+- Take a guided tour of the ancient ruins of Borj Essabai, immersing yourself in the rich history of the region.
+**Afternoon:**
+- Engage in outdoor activities at Parc de Mateur, enjoying scenic walks or family-friendly picnic areas.
+**Evening:**
+- Indulge in a delightful dinner at the top-rated Resturant Cukur Mateur, known for its exquisite cuisine and attentive service.
+**Night:**
+- Experience the vibrant atmosphere at Club petanque mateur, participating in the traditional French boules game and socializing with locals.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5189,14 +7204,60 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Gare SNCFT Mateur located at Gare SNCFT Mateur, P7, Mateur. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557.</t>
+          <t>The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Mateur can you indulge in a unique Gare experience with a 3.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage of Mateur by visiting the MATEUR bookstore, offering a wide selection of local literature.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Resturant Cukur Mateur, renowned for its authentic dishes.
+Midday: Visit the DAR ICHKEUL, a highly-rated maison d'hotes, to experience the unique charm and hospitality of Mateur.
+Afternoon: Engage in outdoor recreation at Club petanque mateur, a popular athletic club offering the traditional French game of petanque.
+Evening: Try local street food at Rapido Food, a 24/7 fast-food restaurant known for its delicious offerings.
+Night: Relax and enjoy the scenic views at SUN SET, a 5-star rated Creperie, while savoring the flavors of exquisite crepes.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Resturant Cukur Mateur is a restaurant located in Mateur, Tunisia. It is a popular spot for locals and tourists alike, and offers a variety of traditional Tunisian dishes. The restaurant is open 24 hours a day, and has a rating of 4.7 out of 5 stars on Google Maps.
+Located in Mateur, VEGAS offers a cozy atmosphere for locals to enjoy a cup of coffee or tea. With a high rating of 5.0, the cafe draws patrons with its warm ambiance and prime location. The establishment is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to relax and savor the cafe's offerings.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5294,14 +7355,67 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable taxi service, check out station Louage Mateur located at station Louage Mateur, P11, Mateur. 
-This top-rated destination is perfect for those seeking a convenient and efficient way to get around the city. 
-With a rating of 4.0, it's a must-visit spot for taxi service needs. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/station+Louage+Mateur/data=!4m7!3m6!1s0x12e3317091d3e867:0x13ebee6ce5a14e48!8m2!3d37.0369423!4d9.666854!16s%2Fg%2F11g19phh9v!19sChIJZ-jTkXAx4xIRSE6h5Wzu6xM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated location in Mateur, renowned for its exceptional taxi service?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical sights of Mateur, Tunisia, such as the Gare SNCFT Mateur, a train station with an average rating of 3.3.
+**Mid-Morning:**
+- Visit the MATEUR bookstore, a popular bookstore highly rated with 4.0 stars out of 5, offering a wide selection of books and specializing in the "Librairie" category.
+**Midday:**
+- Try local cuisine at Saraya restaurant &amp; Salon de the, a restaurant offering a variety of dishes with a 4.0 rating and open from 5:00 AM to 10:00 PM.
+**Afternoon:**
+- Enjoy a leisurely walk or picnic at the scenic surroundings of DAR ICHKEUL, a highly-rated guest house with a peaceful and relaxing atmosphere.
+**Evening:**
+- Experience the cultural immersion at Club petanque mateur, a popular athletic club rated 4.3/5 and offering petanque, a traditional French boules game.
+**Night:**
+- Indulge in a refreshing drink and enjoy the vibrant nightlife at SUN SET, a popular 5-star rated Creperie.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Saraya restaurant &amp; Salon de the** is a restaurant located in Mateur, Tunisia. It offers a variety of dishes with a 4.0 rating. It is open from 5:00 AM to 10:00 PM and is closed on all days. The restaurant's featured image is https://lh5.googleusercontent.com/p/AF1QipNb4Es89rP30r90_34cGt9sCFnlDh2CAPKaEoGy=w408-h306-k-no.
+Cafe Said is located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). The place has a 4.0 rating and belongs to the Cafe main category. It offers a welcoming atmosphere for patrons to enjoy a delightful cafe experience.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5399,14 +7513,11 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable transportation service, station des louages mateur is the place to be. Located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba, this top-rated destination has a rating of 3.3 and is perfect for commuters and travelers alike. station des louages mateur offers a range of transportation services to choose from, so you're sure to find the perfect option for your needs. For more details, visit their website at https://www.google.com/maps/place/station+des+louages+mateur/data=!4m7!3m6!1s0x12e3238aae7707bd:0xb60ea133bc2e45f4!8m2!3d37.148661!4d9.7898182!16s%2Fg%2F11hcfmnh6k!19sChIJvQd3rooj4xIR9EUuvDOhDrY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>What is the name of the highly-rated transportation service located in Mateur that offers a variety of options for commuters and travelers?</t>
-        </is>
-      </c>
+          <t>Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5514,15 +7625,60 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Station-service, check out Shell Mateur located at Shell Mateur, Sud 5, P11, Mateur 7030. 
-This destination is perfect for Station-service lovers and offers a range of categories to choose from, including Station-service, Station de lavage automobile, Superette. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.0361051, 9.6614305. 
-For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044706-mateur-sud or call them at 71 249 149.</t>
+          <t>Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What highly rated Station-service with a variety of categories, including Station-service, Station de lavage automobile, and Superette, can you find in Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare SNCFT Mateur train station, marveling at its architectural beauty and learning about its significance.
+Mid-Morning: Immerse yourself in local culture at the MATEUR bookstore, browsing a vast selection of books and immersing yourself in the bustling atmosphere.
+Midday: Savory the delectable flavors of traditional Tunisian cuisine at Restaurant Lablabi, indulging in the 4.0-star rated brunch options.
+Afternoon: Escape the hustle and bustle in the serene Rapido Food, relishing the culinary delights of a 24/7 fast food experience.
+Evening: Venture to SUN SET, a 5-star rated Creperie, and indulge in the delectable crepes and picturesque ambiance as the sun sets over the horizon.
+Night: Experience the vibrant atmosphere of Club petanque mateur, engaging in the traditional French boules game and soaking up the convivial ambiance.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Saraya restaurant &amp; Salon de the is a Restaurant located in mateur (coordinates: 45.566787, -73.727628). Customer reviews give it an average rating of 4.0
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5624,14 +7780,60 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable gas station, head to Staroil Mateur located at 2MP8+RQF Staroil Mateur, Mateur. 
-This top-rated destination is the perfect spot to refuel your vehicle and offers a range of services to choose from. 
-With a rating of 3.7, it's a must-visit spot for drivers. It's open 24/7, so you can visit anytime you need. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Staroil+Mateur/data=!4m7!3m6!1s0x12e33113e0abcff5:0x6a9b7b914b8241bc!8m2!3d37.0370544!4d9.6669291!16s%2Fg%2F11gjs7bfbz!19sChIJ9c-r4BMx4xIRvEGCS5F7m2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated, 24/7 gas station with a wide range of services in Mateur?</t>
+          <t>Day Plan:
+Morning: Explore the bustling local market to discover unique souvenirs and handicrafts.
+Mid-Morning: Visit the historical landmark of Gare SNCFT Mateur to learn about the city's rich heritage.
+Midday: Savor authentic Tunisian cuisine at the highly-rated Restaurant Zarga, known for its delicious food and welcoming atmosphere.
+Afternoon: Engage in a game of petanque at the popular Club petanque mateur, a great way to socialize and enjoy the outdoors.
+Evening: Shop for books at the highly-rated bookstore, MATEUR, offering a wide selection of literature.
+Night: Relax and unwind with a delectable crepe at SUN SET, a 5-star rated creperie known for its exceptional offerings.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Zarga is a highly rated restaurant located in Mateur, Tunisia. It offers a variety of dining options and is known for its delicious food and friendly service. The restaurant is conveniently located at latitude 37.043585 and longitude 9.6628073, making it easily accessible for both locals and tourists. With its excellent ratings and convenient location, Restaurant Zarga is a great choice for anyone looking for a delicious and satisfying meal.
+Cafe Said is located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). The place has a 4.0 rating and belongs to the Cafe main category. It offers a welcoming atmosphere for patrons to enjoy a delightful cafe experience.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5729,12 +7931,60 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in mateur, Station Du Bus is a top-rated destination for those interested in Societe de transport en bus et autocar. Located at 2MP8+MRG Station Du Bus, Mateur, it offers a variety of related services and products. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (37.043585, 9.6628073). For more details, visit their website at https://www.google.com/maps/place/Station+Du+Bus/data=!4m7!3m6!1s0x12e3311a32d2124b:0x2f4c872ac512788e!8m2!3d37.036677!4d9.6670937!16s%2Fg%2F11f902v06w!19sChIJSxLSMhox4xIRjngSxSqHTC8?authuser=0&amp;hl=fr&amp;rclk=1 or call at .</t>
+          <t>Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you visit in Mateur to immerse yourself in the world of public transportation?</t>
+          <t>Day Plan:
+Morning: Explore MATEUR Bookstore
+Mid-Morning: Try local cuisine at Arabica
+Midday: Visit the Gare SNCFT Mateur train station
+Afternoon: Relax with a coffee at Salon de the
+Evening: Participate in a petanque match at Club petanque mateur
+Night: Enjoy a quick bite at Rapido Food</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5832,12 +8082,62 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a Gare, check out Gare SNCFT Mateur located at Gare SNCFT Mateur, P7, Mateur. 
-This top-rated destination is perfect for Gare lovers. 
-With a rating of 3.3, it's a must-visit spot.  To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at  or call them at .</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr"/>
+          <t>The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the historical landmarks of Mateur
+Mid-Morning: Visit the MATEUR bookstore for a wide selection of books
+Midday: Try local cuisine at Restaurant el ajabi 
+Afternoon: Enjoy scenic views at SUN SET
+Evening: Engage in outdoor activities like petanque at Club petanque mateur
+Night: Relax with a crepe at SUN SET</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el ajabi is located in mateur. It has a rating of 5.0 and is highly reviewed (5 reviews). The main category of the establishment is Restaurant and it offers the following: . The website of the place is nan. The phone number is 22 862 424. The workday timing is 05:05-20:30. The place is located at the following address: 2MQ7+R8H Restaurant el ajabi, Mateur. The coordinates of the place are (37.043585, 9.6628073).
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5933,12 +8233,60 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in mateur, check out station des louages mateur. This top-rated destination is perfect for Service de transport lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>If you are in Mateur and looking for the perfect place for Service de transport enthusiasts, what top-rated destination boasts a 3.3 rating and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring the local bookstore, MATEUR, for a wide selection of books.
+Mid-Morning: Strolling through Club petanque mateur to enjoy a game of petanque and socialize with locals.
+Midday: Trying local cuisine at highly-rated restaurant tmkhmykh, known for its 5.0-star rating.
+Afternoon: Visiting the "station des louages mateur" to learn about the local transport service.
+Evening: Experiencing scenic views at SUN SET, a popular 5-star rated creperie with stunning views.
+Night: Enjoying a relaxing stay at DAR ICHKEUL, a highly-rated maison d'hotes with a 4.8-star rating, perfect for unwinding after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.
+Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6036,12 +8384,60 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable transportation option, check out Station Du Bus located at 2MP8+MRG Station Du Bus, Mateur. This top-rated destination is your go-to place for all your bus transportation needs. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/Station+Du+Bus/data=!4m7!3m6!1s0x12e3311a32d2124b:0x2f4c872ac512788e!8m2!3d37.036677!4d9.6670937!16s%2Fg%2F11f902v06w!19sChIJSxLSMhox4xIRjngSxSqHTC8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where is the top-rated bus transportation destination in Mateur with a GPS location of 37.043585, 9.6628073?</t>
+          <t>Day Plan:
+Morning: Exploring MATEUR, a popular bookstore.
+Mid-Morning: Trying local cuisine at Restaurant Lablabi for a variety of brunch options.
+Midday: Visiting DAR ICHKEUL for a peaceful stay on a farm amidst nature.
+Afternoon: Enjoying petanque, a traditional French boules game, at Club petanque mateur.
+Evening: Experiencing cultural immersion at SUN SET, a popular 5-star rated Creperie.
+Night: Taking a guided tour of The Gare SNCFT Mateur to learn about the local train station and its significance.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.
+L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6139,12 +8535,60 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a Service de transport, check out station des louages mateur located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba. This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/station+des+louages+mateur/data=!4m7!3m6!1s0x12e3238aae7707bd:0xb60ea133bc2e45f4!8m2!3d37.148661!4d9.7898182!16s%2Fg%2F11hcfmnh6k!19sChIJvQd3rooj4xIR9EUuvDOhDrY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Service de transport destination in Mateur with GPS coordinates 37.1489944, 9.788904?</t>
+          <t>Day Plan:
+Morning: Explore the local market and experience the authentic Tunisian culture.
+Mid-Morning: Try local cuisine at Arabica, a top-rated restaurant known for its variety of food options.
+Midday: Visit the MATEUR bookstore, a popular spot for book enthusiasts. Take some time to browse and discover new reads.
+Afternoon: Enjoy petanque, a traditional French boules game, at Club Petanque Mateur. Socialize with locals and immerse yourself in the local atmosphere.
+Evening: Have dinner at Pizza Mateur, a highly-rated pizzeria offering a delicious variety of pizzas.
+Night: Relax and enjoy the scenic views at SUN SET, a popular creperie with a 5-star rating.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.
+The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6242,12 +8686,60 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Service de transport destination, station des louages mateur is the place to go. Located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba, this destination has a rating of 3.3 and offers a range of Service de transport to choose from. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Service de transport destination in Mateur, offering a variety of options and conveniently located with GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore MATEUR, a popular bookstore with a wide selection of books.
+Mid-Morning: Try local cuisine at Patisserie Lamouchi, a highly-rated restaurant offering pastries and desserts.
+Midday: Visit Club petanque mateur, a highly-rated athletic club offering petanque, a traditional French boules game.
+Afternoon: Take a guided tour of DAR ICHKEUL, a guest house located on a farm amidst nature.
+Evening: Enjoy scenic views at SUN SET, a popular Creperie with 5-star ratings.
+Night: Relax with a movie at Cinéplexe Mateur, a cinema offering a variety of movie screenings.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.
+Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.
+Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6357,12 +8849,60 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Station-service, check out Shell located at Route Nationale 7 7 Route De Mateur, Oued Ellil 2121. This destination offers a range of categories to choose from, including Superette. With a rating of 2.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.846863381643, 10.025996939944. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044675-oued-ellil or call them at 71 249 149.</t>
+          <t>Shell, a petrol station located in Oued Ellil, Tunisia, along the Route Nationale 7 Route De Mateur, offers a 24-hour service to its customers. Besides being a gas station, it also operates as a convenience store. It has received a 2.7 rating based on 3 reviews, and you can find more information about it on their website: https://find.shell.com/tn/fuel/TN_10044675-oued-ellil.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Shell Station-service in Mateur that offers a Superette category and remains open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the local bookstore, MATEUR, for a wide selection of books.
+Mid-Morning: Visit Cafe Said for a welcoming cafe experience and a taste of local cuisine.
+Midday: Take a guided tour of DAR ICHKEUL, a peaceful guest house located on a farm amidst nature.
+Afternoon: Relax with a scenic bike ride through the countryside, enjoying the beautiful landscapes of Mateur.
+Evening: Enjoy a delicious dinner at Restaurant Lablabi, offering a variety of brunch options and a welcoming atmosphere.
+Night: Experience the vibrant atmosphere of Club petanque mateur, a highly-rated athletic club offering petanque and socialization.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**tmkhmykh@** is a restaurant located in Mateur Sud, Mateur, Tunisia. It has a rating of 5.0 based on one review. The restaurant's exact coordinates are (37.0397, 9.66046). No further information is available about this establishment.
+Cafe Said is located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). The place has a 4.0 rating and belongs to the Cafe main category. It offers a welcoming atmosphere for patrons to enjoy a delightful cafe experience.
+Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.
+Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.
+DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.
+Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.
+MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.
+Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.
+SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.
+Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.
+The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".
+**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.
+The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).
+Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
